--- a/biology/Médecine/Certificat_de_synthèse_clinique_et_thérapeutique/Certificat_de_synthèse_clinique_et_thérapeutique.xlsx
+++ b/biology/Médecine/Certificat_de_synthèse_clinique_et_thérapeutique/Certificat_de_synthèse_clinique_et_thérapeutique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Certificat_de_synth%C3%A8se_clinique_et_th%C3%A9rapeutique</t>
+          <t>Certificat_de_synthèse_clinique_et_thérapeutique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le certificat de synthèse clinique et thérapeutique (CSCT) est une épreuve d'État qui permet de confirmer officiellement que le participant est apte à exercer la médecine, la maïeutique ou l'odontologie en France. Il est l'équivalent du certificat de synthèse pharmaceutique (alias CSP) pour l'exercice de la pharmacie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certificat_de_synth%C3%A8se_clinique_et_th%C3%A9rapeutique</t>
+          <t>Certificat_de_synthèse_clinique_et_thérapeutique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épreuve se passe en DFASM 3 (6e année), en général avant les épreuves classantes nationales (ECNi, anciennement concours de l'internat puis ECN).
 Le CSCT de médecine n'a plus aucune utilité spécifique car désormais il faut avoir validé entièrement le deuxième cycle des études médicales et avoir validé un certain nombre de semestres d'internat pour exercer comme remplaçant.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certificat_de_synth%C3%A8se_clinique_et_th%C3%A9rapeutique</t>
+          <t>Certificat_de_synthèse_clinique_et_thérapeutique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>En odontologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épreuve se passe en DFASO 2 (5e année).
 Elle se compose d'une épreuve écrite et d'une épreuve orale.
